--- a/paying participants updated.xlsx
+++ b/paying participants updated.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>Nb</t>
   </si>
@@ -113,6 +112,15 @@
   </si>
   <si>
     <t>Nzakou Logsen</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -430,23 +438,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,19 +466,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -479,21 +491,24 @@
       <c r="C2">
         <v>694494629</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
         <v>500</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
         <v>200</v>
       </c>
-      <c r="G2">
-        <f>D2-F2-300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>E2-G2-300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -503,21 +518,24 @@
       <c r="C3">
         <v>699003156</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
         <v>500</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
         <v>200</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G23" si="0">D3-F3-300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H23" si="0">E3-G3-300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -527,21 +545,24 @@
       <c r="C4">
         <v>657407989</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
         <v>500</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
         <v>200</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -551,21 +572,24 @@
       <c r="C5">
         <v>693851447</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
         <v>350</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -575,21 +599,24 @@
       <c r="C6">
         <v>694865719</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
         <v>300</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -599,21 +626,24 @@
       <c r="C7">
         <v>658312450</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
         <v>500</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
         <v>200</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -623,21 +653,24 @@
       <c r="C8">
         <v>657489972</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
         <v>350</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -647,21 +680,24 @@
       <c r="C9">
         <v>675366970</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
         <v>500</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
         <v>200</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -671,21 +707,24 @@
       <c r="C10">
         <v>657936031</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
         <v>500</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
         <v>200</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -695,21 +734,24 @@
       <c r="C11">
         <v>655372422</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
         <v>300</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>11</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -719,21 +761,24 @@
       <c r="C12">
         <v>697720509</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
         <v>300</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>11</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -743,21 +788,24 @@
       <c r="C13">
         <v>674743317</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
         <v>300</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="F13" t="s">
+        <v>11</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -767,21 +815,24 @@
       <c r="C14">
         <v>650469243</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
         <v>1000</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
         <v>700</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -791,21 +842,24 @@
       <c r="C15">
         <v>692201677</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
         <v>300</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="F15" t="s">
+        <v>11</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -815,21 +869,24 @@
       <c r="C16">
         <v>695044180</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
         <v>1000</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
         <v>500</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -839,21 +896,24 @@
       <c r="C17">
         <v>690839895</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
         <v>300</v>
       </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>11</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -863,21 +923,24 @@
       <c r="C18">
         <v>694993298</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18">
         <v>300</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>11</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -887,21 +950,24 @@
       <c r="C19">
         <v>691674935</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
         <v>500</v>
       </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
         <v>100</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -911,42 +977,48 @@
       <c r="C20">
         <v>691569975</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20">
         <v>500</v>
       </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
         <v>200</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
         <v>500</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="F21" t="s">
+        <v>11</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -956,21 +1028,24 @@
       <c r="C22">
         <v>698207148</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
         <v>350</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>12</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -980,16 +1055,19 @@
       <c r="C23">
         <v>696374091</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
         <v>350</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>

--- a/paying participants updated.xlsx
+++ b/paying participants updated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>Nb</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Kamga Jaures</t>
+  </si>
+  <si>
+    <t>Nsini Franc</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +537,7 @@
         <v>200</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H23" si="0">E3-G3-300</f>
+        <f t="shared" ref="H3:H25" si="0">E3-G3-300</f>
         <v>0</v>
       </c>
     </row>
@@ -1070,6 +1076,60 @@
       <c r="H23">
         <f t="shared" si="0"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>691348635</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>500</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>658253270</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/paying participants updated.xlsx
+++ b/paying participants updated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Nb</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Mabou Fotso Kevin</t>
   </si>
   <si>
-    <t>Rikam Yvanol</t>
-  </si>
-  <si>
     <t>Mbame Mbame Martin</t>
   </si>
   <si>
@@ -127,6 +124,15 @@
   </si>
   <si>
     <t>Nsini Franc</t>
+  </si>
+  <si>
+    <t>Nguemo Aymard</t>
+  </si>
+  <si>
+    <t>Miendjem Thierry</t>
+  </si>
+  <si>
+    <t>Rikam Giovanni</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -498,7 +504,7 @@
         <v>694494629</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>500</v>
@@ -525,7 +531,7 @@
         <v>699003156</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -537,7 +543,7 @@
         <v>200</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H25" si="0">E3-G3-300</f>
+        <f t="shared" ref="H3:H27" si="0">E3-G3-300</f>
         <v>0</v>
       </c>
     </row>
@@ -552,7 +558,7 @@
         <v>657407989</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -579,7 +585,7 @@
         <v>693851447</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>350</v>
@@ -606,7 +612,7 @@
         <v>694865719</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>300</v>
@@ -633,7 +639,7 @@
         <v>658312450</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -660,7 +666,7 @@
         <v>657489972</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>350</v>
@@ -687,7 +693,7 @@
         <v>675366970</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -714,7 +720,7 @@
         <v>657936031</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -735,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>655372422</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>300</v>
@@ -762,13 +768,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>697720509</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>300</v>
@@ -789,13 +795,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>674743317</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>300</v>
@@ -816,13 +822,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>650469243</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -843,13 +849,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>692201677</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>300</v>
@@ -870,13 +876,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>695044180</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -897,13 +903,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>690839895</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>300</v>
@@ -924,13 +930,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>694993298</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>300</v>
@@ -951,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>691674935</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -978,13 +984,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>691569975</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -1005,10 +1011,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -1029,13 +1035,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>698207148</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>350</v>
@@ -1056,13 +1062,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>696374091</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>350</v>
@@ -1083,13 +1089,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>691348635</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -1110,13 +1116,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>658253270</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -1130,6 +1136,60 @@
       <c r="H25">
         <f t="shared" si="0"/>
         <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>699027926</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>658528672</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
